--- a/biology/Médecine/SIDA/SIDA.xlsx
+++ b/biology/Médecine/SIDA/SIDA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Programme commun des Nations unies sur le VIH/sida ou plus simplement ONUSIDA est un programme de l'ONU destiné à coordonner l'action des différentes agences spécialisées de l'ONU pour lutter contre la pandémie de VIH / sida.
-Créé le 1er décembre 1995, son siège est à Pregny-Chambésy en Suisse. La Bélizienne Erika Castellanos est la directrice exécutive de l'ONUSIDA depuis janvier 2023[1].
+Créé le 1er décembre 1995, son siège est à Pregny-Chambésy en Suisse. La Bélizienne Erika Castellanos est la directrice exécutive de l'ONUSIDA depuis janvier 2023.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant la création de ONUSIDA, l'Organisation mondiale de la santé (OMS) est l'organisme des Nations unies chargé de la gestion du Sida. En 1994, le Conseil économique et social adopte une résolution pour créer un organisme chargé de la lutte contre le Sida au sein des Nations unies. À sa création, l'ONUSIDA coordonne certaines actions de six organismes : l'OMS, l'Organisation des Nations unies pour l'éducation, la science et la culture (Unesco), le Programme des Nations unies pour le développement (PNUD), le Fonds des Nations unies pour la population (FNUAP), le Fonds des Nations unies pour l'enfance (Unicef) et la Banque mondiale. Par la suite, ONUSIDA intègre aussi des actions l'Office contre la drogue et le crime à partir de 1999, de l'Organisation internationale du travail (OIT) à partir 2001, du Programme alimentaire mondial en 2003 et du Haut Commissariat des Nations unies pour les réfugiés à partir de 2004[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la création de ONUSIDA, l'Organisation mondiale de la santé (OMS) est l'organisme des Nations unies chargé de la gestion du Sida. En 1994, le Conseil économique et social adopte une résolution pour créer un organisme chargé de la lutte contre le Sida au sein des Nations unies. À sa création, l'ONUSIDA coordonne certaines actions de six organismes : l'OMS, l'Organisation des Nations unies pour l'éducation, la science et la culture (Unesco), le Programme des Nations unies pour le développement (PNUD), le Fonds des Nations unies pour la population (FNUAP), le Fonds des Nations unies pour l'enfance (Unicef) et la Banque mondiale. Par la suite, ONUSIDA intègre aussi des actions l'Office contre la drogue et le crime à partir de 1999, de l'Organisation internationale du travail (OIT) à partir 2001, du Programme alimentaire mondial en 2003 et du Haut Commissariat des Nations unies pour les réfugiés à partir de 2004.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">ONUSIDA a été créé afin de coordonner des programmes nationaux et onusiens en vue de mettre en œuvre une politique globale de lutte contre le SIDA.
 Son second rôle est d'informer au sujet de la pandémie de SIDA, tant sur les plans médical (nombre de personnes infectées) et social (conditions de vie des personnes vivant avec le VIH) qu'économique (impact économique).
@@ -576,9 +592,11 @@
           <t>Budget</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ONUSIDA dispose d'un budget biennal, le Budget-Plan de Travail Intégré (BPTI), qui pour la période 2010-2011 s'élève à 484 millions de dollars[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONUSIDA dispose d'un budget biennal, le Budget-Plan de Travail Intégré (BPTI), qui pour la période 2010-2011 s'élève à 484 millions de dollars.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Institutions de l'ONU travaillant avec ONUSIDA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pour pouvoir combattre efficacement le sida, ONUSIDA coordonne le travail de 11 agences spécialisées de l'ONU (nommées les « coparrainants »), qui sont[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour pouvoir combattre efficacement le sida, ONUSIDA coordonne le travail de 11 agences spécialisées de l'ONU (nommées les « coparrainants »), qui sont :
 le Haut Commissariat des Nations unies pour les réfugiés (UNHCR)
 aide logistique et combat contre le VIH / sida dans les populations déplacées
 le Fonds des Nations unies pour l'enfance (UNICEF)
@@ -658,10 +678,12 @@
           <t>Autres rôles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ONUSIDA compte un de ses membres dans le Conseil d'administration du Fonds mondial de lutte contre le sida, la tuberculose et le paludisme, ou Fonds mondial.
-L’ONUSIDA travaille avec Caritas Internationalis afin de bénéficier de l’expertise des organisations parrainées par l’Église catholique dans leur travail de riposte au sida. Des efforts conjoints ont abouti à un message du pape Benoît XVI en décembre 2005, appelant à la compassion à l’égard des personnes vivant avec le VIH[5].
+L’ONUSIDA travaille avec Caritas Internationalis afin de bénéficier de l’expertise des organisations parrainées par l’Église catholique dans leur travail de riposte au sida. Des efforts conjoints ont abouti à un message du pape Benoît XVI en décembre 2005, appelant à la compassion à l’égard des personnes vivant avec le VIH.
 </t>
         </is>
       </c>
@@ -690,9 +712,11 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2019, le directeur général Michel Sidibe démissionne de son poste 6 mois avant son terme, à la suite d'un rapport mettant en cause sa direction, rapport ayant été mis en place après un dépôt de plainte d'une employée contre le directeur adjoint concernant une agression sexuelle[6],[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2019, le directeur général Michel Sidibe démissionne de son poste 6 mois avant son terme, à la suite d'un rapport mettant en cause sa direction, rapport ayant été mis en place après un dépôt de plainte d'une employée contre le directeur adjoint concernant une agression sexuelle,.
 </t>
         </is>
       </c>
